--- a/FIELD.xlsx
+++ b/FIELD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FF7376-C9D3-4820-B1ED-68AC196AE94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503194A-57B4-402A-8218-6AA6E4E97A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="56">
   <si>
     <t>X</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Вижу, тебя мой дедушка отправил искать подарки...</t>
   </si>
   <si>
-    <t>Вообще, их аж 45 штук!</t>
-  </si>
-  <si>
     <t>Погодите, я столько подарков здесь не оставлял…</t>
   </si>
   <si>
@@ -187,6 +184,15 @@
   </si>
   <si>
     <t>Не все эльфы здесь дружелюбные. Чем выше номер, тем больше шанс, что они не сильно любят общаться с чужими людьми.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Передвигайся с помощью клавиш WASD или стрелок.</t>
+  </si>
+  <si>
+    <t>Вообще-то их здесь аж 45 штук!</t>
   </si>
 </sst>
 </file>
@@ -977,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,8 +1242,8 @@
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>0</v>
+      <c r="B3" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -1641,8 +1647,8 @@
       <c r="N6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>2</v>
+      <c r="O6" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="P6" s="23" t="s">
         <v>2</v>
@@ -3237,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>1</v>
@@ -3898,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="J37" s="37" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3906,7 +3912,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3914,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3922,7 +3928,7 @@
         <v>5</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,7 +3936,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3938,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I42" s="37" t="s">
         <v>15</v>
@@ -3949,7 +3955,7 @@
         <v>11</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3957,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3965,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3973,7 +3979,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46" s="37" t="s">
         <v>15</v>
@@ -3984,7 +3990,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3992,7 +3998,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -4000,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="J49" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,7 +4014,7 @@
         <v>6</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -4016,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -4024,7 +4030,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -4032,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -4040,7 +4046,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I54" s="37" t="s">
         <v>15</v>
@@ -4051,7 +4057,7 @@
         <v>12</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -4059,15 +4065,15 @@
         <v>3</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="I57" s="37" t="s">
         <v>15</v>
@@ -4075,15 +4081,15 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I58" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -4091,7 +4097,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4099,7 +4105,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4107,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4115,7 +4121,15 @@
         <v>10</v>
       </c>
       <c r="C64" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
         <v>53</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
